--- a/src/main/resources/data/Testdata.xlsx
+++ b/src/main/resources/data/Testdata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -50,7 +50,58 @@
     <t>Emirates Airline</t>
   </si>
   <si>
-    <t>data1</t>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ReturnDate</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Infants</t>
+  </si>
+  <si>
+    <t>Search Flight_001</t>
+  </si>
+  <si>
+    <t>MAA</t>
+  </si>
+  <si>
+    <t>DXB</t>
+  </si>
+  <si>
+    <t>2872023</t>
+  </si>
+  <si>
+    <t>2082023</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Search Flight_002</t>
+  </si>
+  <si>
+    <t>2972024</t>
+  </si>
+  <si>
+    <t>1282023</t>
   </si>
 </sst>
 </file>
@@ -88,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -96,6 +147,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -397,6 +451,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -405,6 +462,76 @@
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/main/resources/data/Testdata.xlsx
+++ b/src/main/resources/data/Testdata.xlsx
@@ -80,10 +80,10 @@
     <t>DXB</t>
   </si>
   <si>
-    <t>2872023</t>
-  </si>
-  <si>
-    <t>2082023</t>
+    <t>11X2023</t>
+  </si>
+  <si>
+    <t>20X2023</t>
   </si>
   <si>
     <t>2</t>
@@ -98,10 +98,10 @@
     <t>Search Flight_002</t>
   </si>
   <si>
-    <t>2972024</t>
-  </si>
-  <si>
-    <t>1282023</t>
+    <t>10X2023</t>
+  </si>
+  <si>
+    <t>12X2023</t>
   </si>
 </sst>
 </file>
